--- a/biology/Biologie cellulaire et moléculaire/Profiline/Profiline.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Profiline/Profiline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les profilines sont une famille de protéines de 15 kDa faisant partie des protéines liant l'actine (en) (ABP), qui, comme leur nom l'indique, se lient aux filaments d'actine. Leur rôle physiologique est complexe.
 La profiline peut se lier à l'actine-G-ADP et la séquestrer, favorisant ainsi sa polymérisation. Par ailleurs, cette protéine peut ouvrir le site de liaison à l'ADP et ainsi favoriser l'échange ADP/ATP contrôlant la quantité disponible pour la polymérisation. En effet, lorsque l'actine G est liée a l'ATP, celle-ci est plus active et favorise l'élongation du polymère d'actine. La profiline se lie à la face d'un monomère d'actine opposée à la fente de liaison à l'ATP, elle bloque également le côté du monomère qui devrait normalement s'associer à l'extrémité "moins" du filament tout en laissant exposé le site du monomère pouvant se lier avec l'extrémité "plus" du filament.
